--- a/calendar_new.xlsx
+++ b/calendar_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankofcanada-my.sharepoint.com/personal/gojo_bank-banque-canada_ca/Documents/MyDocs/Python Projects/weeklyCalendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_05002220C221175E0A14FB417BA4C4269343EA34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3830312C-B748-4F6A-BFAF-7B59DEB9C8BC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_8406222025D99704726F3F816CC8C4E95126DA29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5660E124-7CE7-4FFB-9316-902C66F34C56}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="2610" windowWidth="21480" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66510" yWindow="1755" windowWidth="30795" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="236">
   <si>
     <t>Economic Calendar of Events / Calendrier économique des événements</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Updated:</t>
   </si>
   <si>
-    <t>Date Time</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>Country</t>
@@ -50,19 +50,19 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Prior</t>
-  </si>
-  <si>
-    <t>Revised</t>
+    <t>Month/mois</t>
+  </si>
+  <si>
+    <t>Actual/Actuel</t>
+  </si>
+  <si>
+    <t>Forecast/Prevision</t>
+  </si>
+  <si>
+    <t>Previous/Precedant</t>
+  </si>
+  <si>
+    <t>Revised/Revise</t>
   </si>
   <si>
     <t>CA</t>
@@ -726,6 +726,21 @@
   </si>
   <si>
     <t>-2.60%</t>
+  </si>
+  <si>
+    <t>United States/ETATS-UNIS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Briefing Line: 782-7000</t>
+  </si>
+  <si>
+    <t>Pg 9</t>
+  </si>
+  <si>
+    <t>Rel. 2.8</t>
   </si>
 </sst>
 </file>
@@ -764,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -772,7 +787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,17 +809,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A2:H96" totalsRowShown="0">
-  <autoFilter ref="A2:H96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A2:H98" totalsRowShown="0">
+  <autoFilter ref="A2:H98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date Time" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Canada" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Country"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Event"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Survey"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Actual"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Prior"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Revised"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month/mois"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Actual/Actuel"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Forecast/Prevision"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Previous/Precedant"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Revised/Revise"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1098,41 +1112,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1">
         <f ca="1">NOW()</f>
-        <v>45350.575333564811</v>
+        <v>45351.507386111109</v>
       </c>
       <c r="H1">
         <f ca="1">NOW()</f>
-        <v>45350.575333564811</v>
+        <v>45351.507386111109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1292,29 +1303,27 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>224</v>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,48 +1334,48 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45349</v>
+        <v>45348</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1377,22 +1386,22 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,22 +1412,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>106</v>
@@ -1438,13 +1447,13 @@
         <v>124</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,22 +1464,22 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,22 +1490,22 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1507,45 +1516,45 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45350</v>
+        <v>45349</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>120</v>
@@ -1559,19 +1568,19 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>120</v>
@@ -1585,19 +1594,19 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>120</v>
@@ -1611,19 +1620,19 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>120</v>
@@ -1637,19 +1646,19 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>120</v>
@@ -1663,19 +1672,19 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>120</v>
@@ -1683,25 +1692,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>120</v>
@@ -1715,19 +1724,19 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>120</v>
@@ -1741,19 +1750,19 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>120</v>
@@ -1767,19 +1776,19 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>120</v>
@@ -1793,19 +1802,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>120</v>
@@ -1819,19 +1828,19 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>120</v>
@@ -1845,19 +1854,19 @@
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>120</v>
@@ -1871,19 +1880,19 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>120</v>
@@ -1897,19 +1906,19 @@
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>120</v>
@@ -1917,25 +1926,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>120</v>
@@ -1949,19 +1958,19 @@
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>120</v>
@@ -1975,19 +1984,19 @@
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>120</v>
@@ -2001,19 +2010,19 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>120</v>
@@ -2027,19 +2036,19 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>120</v>
@@ -2047,103 +2056,101 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45352</v>
+        <v>45349</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>120</v>
@@ -2157,19 +2164,19 @@
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>120</v>
@@ -2183,19 +2190,19 @@
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>120</v>
@@ -2209,19 +2216,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>120</v>
@@ -2229,25 +2236,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>120</v>
@@ -2255,25 +2262,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>120</v>
@@ -2281,25 +2288,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45351</v>
+        <v>45349</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>120</v>
@@ -2313,13 +2320,13 @@
         <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>120</v>
@@ -2339,19 +2346,19 @@
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>120</v>
@@ -2365,19 +2372,19 @@
         <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>120</v>
@@ -2391,19 +2398,19 @@
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>120</v>
@@ -2417,19 +2424,19 @@
         <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>120</v>
@@ -2443,19 +2450,19 @@
         <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>120</v>
@@ -2463,25 +2470,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>120</v>
@@ -2489,80 +2496,80 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45351</v>
+        <v>45349</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2573,22 +2580,22 @@
         <v>14</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,22 +2606,22 @@
         <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2625,19 +2632,19 @@
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>120</v>
@@ -2651,19 +2658,19 @@
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>120</v>
@@ -2677,19 +2684,19 @@
         <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>120</v>
@@ -2703,19 +2710,19 @@
         <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>120</v>
@@ -2723,25 +2730,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>120</v>
@@ -2749,25 +2756,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>120</v>
@@ -2775,25 +2782,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>120</v>
@@ -2807,19 +2814,19 @@
         <v>15</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>120</v>
@@ -2827,25 +2834,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>120</v>
@@ -2853,25 +2860,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>120</v>
@@ -2885,19 +2892,19 @@
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>120</v>
@@ -2911,19 +2918,19 @@
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>120</v>
@@ -2937,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>112</v>
@@ -2949,7 +2956,7 @@
         <v>120</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>120</v>
@@ -2963,19 +2970,19 @@
         <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>120</v>
@@ -2983,25 +2990,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>120</v>
@@ -3009,25 +3016,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>120</v>
@@ -3041,19 +3048,19 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>120</v>
@@ -3067,19 +3074,19 @@
         <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>120</v>
@@ -3087,25 +3094,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>120</v>
@@ -3113,25 +3120,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>120</v>
@@ -3145,19 +3152,19 @@
         <v>16</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>120</v>
@@ -3165,25 +3172,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>120</v>
@@ -3191,25 +3198,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>120</v>
@@ -3217,25 +3224,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45348</v>
+        <v>45347</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>120</v>
@@ -3243,25 +3250,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45350</v>
+        <v>45348</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>120</v>
@@ -3269,28 +3276,28 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45350</v>
+        <v>45348</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3301,22 +3308,22 @@
         <v>17</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3327,22 +3334,22 @@
         <v>17</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3353,22 +3360,22 @@
         <v>17</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3379,19 +3386,19 @@
         <v>17</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>120</v>
@@ -3405,19 +3412,19 @@
         <v>17</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>120</v>
@@ -3425,25 +3432,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>120</v>
@@ -3451,25 +3458,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>120</v>
@@ -3483,19 +3490,19 @@
         <v>17</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>120</v>
@@ -3509,19 +3516,19 @@
         <v>17</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>120</v>
@@ -3532,22 +3539,22 @@
         <v>45351</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>120</v>
@@ -3558,22 +3565,22 @@
         <v>45351</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>120</v>
@@ -3587,22 +3594,87 @@
         <v>18</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="H97" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>120</v>
+      <c r="H98" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/calendar_new.xlsx
+++ b/calendar_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankofcanada-my.sharepoint.com/personal/gojo_bank-banque-canada_ca/Documents/MyDocs/Python Projects/weeklyCalendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_8406222025D99704726F3F816CC8C4E95126DA29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5660E124-7CE7-4FFB-9316-902C66F34C56}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_8406222025D99704726F3F816CC8C4E95126DA29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD9E0C0-0805-4B95-AEC8-95E1C6EF0766}"/>
   <bookViews>
-    <workbookView xWindow="66510" yWindow="1755" windowWidth="30795" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20160" yWindow="2310" windowWidth="30795" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1115,14 +1115,14 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="G1">
         <f ca="1">NOW()</f>
-        <v>45351.507386111109</v>
+        <v>45351.595584953706</v>
       </c>
       <c r="H1">
         <f ca="1">NOW()</f>
-        <v>45351.507386111109</v>
+        <v>45351.595584953706</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/calendar_new.xlsx
+++ b/calendar_new.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankofcanada-my.sharepoint.com/personal/gojo_bank-banque-canada_ca/Documents/MyDocs/Python Projects/weeklyCalendar/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_5BF1E13AAA69532AF26F3F816C4964F83CBBF77B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E0ED29C-D640-4A25-9423-BB234F011C7A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22665" yWindow="1980" windowWidth="27915" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="234">
   <si>
     <t>Economic Calendar of Events / Calendrier économique des événements</t>
   </si>
@@ -64,9 +83,6 @@
     <t>S&amp;P Global Canada Manufacturing PMI</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>New Home Sales</t>
   </si>
   <si>
@@ -310,9 +326,6 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Month/mois</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -361,9 +374,6 @@
     <t>--</t>
   </si>
   <si>
-    <t>Actual/Actuel</t>
-  </si>
-  <si>
     <t>684k</t>
   </si>
   <si>
@@ -526,9 +536,6 @@
     <t>50.7</t>
   </si>
   <si>
-    <t>Forecast/Prevision</t>
-  </si>
-  <si>
     <t>661k</t>
   </si>
   <si>
@@ -568,9 +575,6 @@
     <t>48.3</t>
   </si>
   <si>
-    <t>Previous/Precedant</t>
-  </si>
-  <si>
     <t>664k</t>
   </si>
   <si>
@@ -677,9 +681,6 @@
   </si>
   <si>
     <t>50.8</t>
-  </si>
-  <si>
-    <t>Revised/Revise</t>
   </si>
   <si>
     <t>651k</t>
@@ -739,13 +740,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
-    <numFmt numFmtId="165" formatCode="h:mm AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-en-US]d-mmm;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,14 +817,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -841,39 +840,51 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-en-US]d-mmm;@"/>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
-    <dxf/>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A3:H98" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A3:H98" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" name="Canada" dataDxfId="0"/>
-    <tableColumn id="2" name="Country" dataDxfId="1"/>
-    <tableColumn id="3" name="Event" dataDxfId="2"/>
-    <tableColumn id="4" name="Month/mois" dataDxfId="2"/>
-    <tableColumn id="5" name="Actual/Actuel" dataDxfId="1"/>
-    <tableColumn id="6" name="Forecast/Prevision" dataDxfId="2"/>
-    <tableColumn id="7" name="Previous/Precedant" dataDxfId="2"/>
-    <tableColumn id="8" name="Revised/Revise" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Canada" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Country" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Event"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month/mois"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Actual/Actuel" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Forecast/Prevision"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Previous/Precedant"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Revised/Revise"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -911,7 +922,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -945,6 +956,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -979,9 +991,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1154,12 +1167,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1167,7 +1182,7 @@
     <col min="4" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,37 +1194,37 @@
         <v>1</v>
       </c>
       <c r="G1" s="3">
-        <f>NOW()</f>
-        <v>0</v>
+        <f ca="1">NOW()</f>
+        <v>45352.64965752315</v>
       </c>
       <c r="H1" s="4">
-        <f>NOW()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <f ca="1">NOW()</f>
+        <v>45352.64965752315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45350</v>
       </c>
@@ -1220,22 +1235,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45351</v>
       </c>
@@ -1246,22 +1261,22 @@
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45351</v>
       </c>
@@ -1272,22 +1287,22 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45351</v>
       </c>
@@ -1298,22 +1313,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45352</v>
       </c>
@@ -1324,44 +1339,44 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45348</v>
       </c>
@@ -1369,25 +1384,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45348</v>
       </c>
@@ -1395,25 +1410,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45349</v>
       </c>
@@ -1421,25 +1436,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45349</v>
       </c>
@@ -1447,25 +1462,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45349</v>
       </c>
@@ -1473,25 +1488,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45349</v>
       </c>
@@ -1499,25 +1514,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45349</v>
       </c>
@@ -1525,25 +1540,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45349</v>
       </c>
@@ -1551,25 +1566,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45349</v>
       </c>
@@ -1577,25 +1592,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45350</v>
       </c>
@@ -1603,25 +1618,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45350</v>
       </c>
@@ -1629,25 +1644,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45350</v>
       </c>
@@ -1655,25 +1670,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45350</v>
       </c>
@@ -1681,25 +1696,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45350</v>
       </c>
@@ -1707,25 +1722,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45350</v>
       </c>
@@ -1733,25 +1748,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>45351</v>
       </c>
@@ -1759,25 +1774,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45351</v>
       </c>
@@ -1785,25 +1800,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45351</v>
       </c>
@@ -1811,25 +1826,25 @@
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45351</v>
       </c>
@@ -1837,25 +1852,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45351</v>
       </c>
@@ -1863,25 +1878,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45351</v>
       </c>
@@ -1889,25 +1904,25 @@
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45351</v>
       </c>
@@ -1915,25 +1930,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45351</v>
       </c>
@@ -1941,25 +1956,25 @@
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45351</v>
       </c>
@@ -1967,25 +1982,25 @@
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45352</v>
       </c>
@@ -1993,25 +2008,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45352</v>
       </c>
@@ -2019,25 +2034,25 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45352</v>
       </c>
@@ -2045,25 +2060,25 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45352</v>
       </c>
@@ -2071,25 +2086,25 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45352</v>
       </c>
@@ -2097,47 +2112,47 @@
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45349</v>
       </c>
@@ -2145,25 +2160,25 @@
         <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45350</v>
       </c>
@@ -2171,25 +2186,25 @@
         <v>4</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45352</v>
       </c>
@@ -2197,25 +2212,25 @@
         <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45352</v>
       </c>
@@ -2223,25 +2238,25 @@
         <v>4</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45352</v>
       </c>
@@ -2249,25 +2264,25 @@
         <v>4</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45352</v>
       </c>
@@ -2275,25 +2290,25 @@
         <v>4</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45352</v>
       </c>
@@ -2301,25 +2316,25 @@
         <v>4</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45349</v>
       </c>
@@ -2327,25 +2342,25 @@
         <v>5</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45351</v>
       </c>
@@ -2353,25 +2368,25 @@
         <v>5</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45351</v>
       </c>
@@ -2379,25 +2394,25 @@
         <v>5</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45351</v>
       </c>
@@ -2405,25 +2420,25 @@
         <v>5</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45351</v>
       </c>
@@ -2431,25 +2446,25 @@
         <v>5</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45351</v>
       </c>
@@ -2457,25 +2472,25 @@
         <v>5</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45351</v>
       </c>
@@ -2486,22 +2501,22 @@
         <v>14</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45351</v>
       </c>
@@ -2509,25 +2524,25 @@
         <v>5</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45351</v>
       </c>
@@ -2535,25 +2550,25 @@
         <v>5</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45352</v>
       </c>
@@ -2561,25 +2576,25 @@
         <v>5</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45349</v>
       </c>
@@ -2587,25 +2602,25 @@
         <v>6</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45351</v>
       </c>
@@ -2613,25 +2628,25 @@
         <v>6</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45351</v>
       </c>
@@ -2639,25 +2654,25 @@
         <v>6</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45351</v>
       </c>
@@ -2665,25 +2680,25 @@
         <v>6</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>45351</v>
       </c>
@@ -2691,25 +2706,25 @@
         <v>6</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>45351</v>
       </c>
@@ -2717,25 +2732,25 @@
         <v>6</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45351</v>
       </c>
@@ -2743,25 +2758,25 @@
         <v>6</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45351</v>
       </c>
@@ -2769,25 +2784,25 @@
         <v>6</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45351</v>
       </c>
@@ -2795,25 +2810,25 @@
         <v>6</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45352</v>
       </c>
@@ -2821,25 +2836,25 @@
         <v>6</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45350</v>
       </c>
@@ -2847,25 +2862,25 @@
         <v>7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>45350</v>
       </c>
@@ -2873,25 +2888,25 @@
         <v>7</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45350</v>
       </c>
@@ -2899,25 +2914,25 @@
         <v>7</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45352</v>
       </c>
@@ -2925,25 +2940,25 @@
         <v>7</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45352</v>
       </c>
@@ -2951,25 +2966,25 @@
         <v>7</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45352</v>
       </c>
@@ -2977,25 +2992,25 @@
         <v>7</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45352</v>
       </c>
@@ -3003,25 +3018,25 @@
         <v>7</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45352</v>
       </c>
@@ -3029,25 +3044,25 @@
         <v>7</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>45352</v>
       </c>
@@ -3055,25 +3070,25 @@
         <v>7</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>45351</v>
       </c>
@@ -3081,25 +3096,25 @@
         <v>8</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45351</v>
       </c>
@@ -3107,25 +3122,25 @@
         <v>8</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>45351</v>
       </c>
@@ -3133,25 +3148,25 @@
         <v>8</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>45351</v>
       </c>
@@ -3159,25 +3174,25 @@
         <v>8</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>45352</v>
       </c>
@@ -3185,25 +3200,25 @@
         <v>8</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>45352</v>
       </c>
@@ -3211,25 +3226,25 @@
         <v>8</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>45352</v>
       </c>
@@ -3237,25 +3252,25 @@
         <v>8</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>45347</v>
       </c>
@@ -3263,25 +3278,25 @@
         <v>9</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>45348</v>
       </c>
@@ -3289,25 +3304,25 @@
         <v>9</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45348</v>
       </c>
@@ -3315,25 +3330,25 @@
         <v>9</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>45350</v>
       </c>
@@ -3341,25 +3356,25 @@
         <v>9</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45350</v>
       </c>
@@ -3367,25 +3382,25 @@
         <v>9</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>45350</v>
       </c>
@@ -3393,25 +3408,25 @@
         <v>9</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>45350</v>
       </c>
@@ -3419,25 +3434,25 @@
         <v>9</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>45350</v>
       </c>
@@ -3445,25 +3460,25 @@
         <v>9</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>45350</v>
       </c>
@@ -3471,25 +3486,25 @@
         <v>9</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45350</v>
       </c>
@@ -3497,25 +3512,25 @@
         <v>9</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45351</v>
       </c>
@@ -3523,25 +3538,25 @@
         <v>9</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>45351</v>
       </c>
@@ -3549,25 +3564,25 @@
         <v>9</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45351</v>
       </c>
@@ -3575,25 +3590,25 @@
         <v>9</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45351</v>
       </c>
@@ -3601,25 +3616,25 @@
         <v>9</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45351</v>
       </c>
@@ -3627,25 +3642,25 @@
         <v>10</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45351</v>
       </c>
@@ -3653,25 +3668,25 @@
         <v>10</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45351</v>
       </c>
@@ -3679,25 +3694,25 @@
         <v>10</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3705,26 +3720,29 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H100" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Category/Catégorie: Non-Sensitive/Non-Délicat&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/calendar_new.xlsx
+++ b/calendar_new.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankofcanada-my.sharepoint.com/personal/gojo_bank-banque-canada_ca/Documents/MyDocs/Python Projects/weeklyCalendar/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C031623D0AC1D300CE6E3F816C22144F41703338" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B731444-AC9E-4EF7-BAF2-38CA6041666E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22695" yWindow="2415" windowWidth="27150" windowHeight="17865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="228">
   <si>
     <t>Economic Calendar of Events / Calendrier économique des événements</t>
   </si>
@@ -64,9 +83,6 @@
     <t>S&amp;P Global Canada Manufacturing PMI</t>
   </si>
   <si>
-    <t>New Home Sales</t>
-  </si>
-  <si>
     <t>Dallas Fed Manf. Activity</t>
   </si>
   <si>
@@ -355,9 +371,6 @@
     <t>--</t>
   </si>
   <si>
-    <t>684k</t>
-  </si>
-  <si>
     <t>-15</t>
   </si>
   <si>
@@ -517,9 +530,6 @@
     <t>50.7</t>
   </si>
   <si>
-    <t>661k</t>
-  </si>
-  <si>
     <t>-11.3</t>
   </si>
   <si>
@@ -556,9 +566,6 @@
     <t>48.3</t>
   </si>
   <si>
-    <t>664k</t>
-  </si>
-  <si>
     <t>-27.4</t>
   </si>
   <si>
@@ -586,9 +593,6 @@
     <t>52.9</t>
   </si>
   <si>
-    <t>-15.5</t>
-  </si>
-  <si>
     <t>-0.40%</t>
   </si>
   <si>
@@ -662,9 +666,6 @@
   </si>
   <si>
     <t>50.8</t>
-  </si>
-  <si>
-    <t>651k</t>
   </si>
   <si>
     <t>-0.10%</t>
@@ -721,13 +722,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
-    <numFmt numFmtId="165" formatCode="h:mm AM/PM"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,14 +805,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -831,42 +830,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy-mm-dd;@"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
-    <dxf/>
-    <dxf/>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A3:H96" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A3:H96" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" name="CANADA" dataDxfId="0"/>
-    <tableColumn id="2" name="Country" dataDxfId="1"/>
-    <tableColumn id="3" name="Event" dataDxfId="2"/>
-    <tableColumn id="4" name="Month / mois" dataDxfId="3"/>
-    <tableColumn id="5" name="Actual / Actuel" dataDxfId="3"/>
-    <tableColumn id="6" name="Forecast / Prévision" dataDxfId="3"/>
-    <tableColumn id="7" name="Previous / Précédant" dataDxfId="3"/>
-    <tableColumn id="8" name="Revised / Révisé" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CANADA" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Country" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Event"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month / mois"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Actual / Actuel"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Forecast / Prévision"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Previous / Précédant"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Revised / Révisé"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -904,7 +909,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -938,6 +943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -972,9 +978,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1147,12 +1154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1160,7 +1169,7 @@
     <col min="4" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,37 +1181,37 @@
         <v>1</v>
       </c>
       <c r="G1" s="3">
-        <f>NOW()</f>
-        <v>0</v>
+        <f ca="1">NOW()</f>
+        <v>45363.667001388887</v>
       </c>
       <c r="H1" s="4">
-        <f>NOW()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <f ca="1">NOW()</f>
+        <v>45363.667001388887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45350</v>
       </c>
@@ -1213,22 +1222,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45351</v>
       </c>
@@ -1239,22 +1248,22 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45351</v>
       </c>
@@ -1265,22 +1274,22 @@
         <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45351</v>
       </c>
@@ -1291,22 +1300,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45352</v>
       </c>
@@ -1317,44 +1326,44 @@
         <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45348</v>
       </c>
@@ -1362,25 +1371,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45349</v>
       </c>
@@ -1388,25 +1397,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45349</v>
       </c>
@@ -1414,25 +1423,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45349</v>
       </c>
@@ -1440,25 +1449,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45349</v>
       </c>
@@ -1466,25 +1475,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45349</v>
       </c>
@@ -1492,25 +1501,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45349</v>
       </c>
@@ -1518,25 +1527,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45349</v>
       </c>
@@ -1544,25 +1553,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45350</v>
       </c>
@@ -1570,25 +1579,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45350</v>
       </c>
@@ -1596,25 +1605,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45350</v>
       </c>
@@ -1622,25 +1631,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45350</v>
       </c>
@@ -1648,25 +1657,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45350</v>
       </c>
@@ -1674,25 +1683,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45350</v>
       </c>
@@ -1700,25 +1709,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45351</v>
       </c>
@@ -1726,25 +1735,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>45351</v>
       </c>
@@ -1752,25 +1761,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45351</v>
       </c>
@@ -1778,25 +1787,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45351</v>
       </c>
@@ -1804,25 +1813,25 @@
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45351</v>
       </c>
@@ -1830,25 +1839,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45351</v>
       </c>
@@ -1856,25 +1865,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45351</v>
       </c>
@@ -1882,25 +1891,25 @@
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45351</v>
       </c>
@@ -1908,25 +1917,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45351</v>
       </c>
@@ -1934,25 +1943,25 @@
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45352</v>
       </c>
@@ -1960,25 +1969,25 @@
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45352</v>
       </c>
@@ -1986,25 +1995,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45352</v>
       </c>
@@ -2012,25 +2021,25 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45352</v>
       </c>
@@ -2038,25 +2047,25 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45352</v>
       </c>
@@ -2064,25 +2073,25 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45349</v>
       </c>
@@ -2090,47 +2099,47 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45352</v>
       </c>
@@ -2138,25 +2147,25 @@
         <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45352</v>
       </c>
@@ -2164,25 +2173,25 @@
         <v>4</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45352</v>
       </c>
@@ -2190,25 +2199,25 @@
         <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45352</v>
       </c>
@@ -2216,25 +2225,25 @@
         <v>4</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45352</v>
       </c>
@@ -2242,25 +2251,25 @@
         <v>4</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45349</v>
       </c>
@@ -2268,25 +2277,25 @@
         <v>5</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45351</v>
       </c>
@@ -2294,25 +2303,25 @@
         <v>5</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45351</v>
       </c>
@@ -2320,25 +2329,25 @@
         <v>5</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45351</v>
       </c>
@@ -2346,25 +2355,25 @@
         <v>5</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45351</v>
       </c>
@@ -2372,25 +2381,25 @@
         <v>5</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45351</v>
       </c>
@@ -2398,25 +2407,25 @@
         <v>5</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45351</v>
       </c>
@@ -2427,22 +2436,22 @@
         <v>14</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45351</v>
       </c>
@@ -2450,25 +2459,25 @@
         <v>5</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45351</v>
       </c>
@@ -2476,25 +2485,25 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45352</v>
       </c>
@@ -2502,25 +2511,25 @@
         <v>5</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45349</v>
       </c>
@@ -2528,25 +2537,25 @@
         <v>6</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45351</v>
       </c>
@@ -2554,25 +2563,25 @@
         <v>6</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45351</v>
       </c>
@@ -2580,25 +2589,25 @@
         <v>6</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45351</v>
       </c>
@@ -2606,25 +2615,25 @@
         <v>6</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45351</v>
       </c>
@@ -2632,25 +2641,25 @@
         <v>6</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45351</v>
       </c>
@@ -2658,25 +2667,25 @@
         <v>6</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>45351</v>
       </c>
@@ -2684,25 +2693,25 @@
         <v>6</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>45351</v>
       </c>
@@ -2710,25 +2719,25 @@
         <v>6</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45351</v>
       </c>
@@ -2736,25 +2745,25 @@
         <v>6</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45352</v>
       </c>
@@ -2762,25 +2771,25 @@
         <v>6</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45350</v>
       </c>
@@ -2788,25 +2797,25 @@
         <v>7</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45350</v>
       </c>
@@ -2814,25 +2823,25 @@
         <v>7</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45350</v>
       </c>
@@ -2840,25 +2849,25 @@
         <v>7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>45352</v>
       </c>
@@ -2866,25 +2875,25 @@
         <v>7</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45352</v>
       </c>
@@ -2892,25 +2901,25 @@
         <v>7</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45352</v>
       </c>
@@ -2918,25 +2927,25 @@
         <v>7</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45352</v>
       </c>
@@ -2944,25 +2953,25 @@
         <v>7</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45352</v>
       </c>
@@ -2970,25 +2979,25 @@
         <v>7</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45352</v>
       </c>
@@ -2996,25 +3005,25 @@
         <v>7</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45351</v>
       </c>
@@ -3022,25 +3031,25 @@
         <v>8</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>45351</v>
       </c>
@@ -3048,25 +3057,25 @@
         <v>8</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>45351</v>
       </c>
@@ -3074,25 +3083,25 @@
         <v>8</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45351</v>
       </c>
@@ -3100,25 +3109,25 @@
         <v>8</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>45352</v>
       </c>
@@ -3126,25 +3135,25 @@
         <v>8</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>45352</v>
       </c>
@@ -3152,25 +3161,25 @@
         <v>8</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>45352</v>
       </c>
@@ -3178,25 +3187,25 @@
         <v>8</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>45347</v>
       </c>
@@ -3204,25 +3213,25 @@
         <v>9</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>45348</v>
       </c>
@@ -3230,25 +3239,25 @@
         <v>9</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>45348</v>
       </c>
@@ -3256,25 +3265,25 @@
         <v>9</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>45350</v>
       </c>
@@ -3282,25 +3291,25 @@
         <v>9</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45350</v>
       </c>
@@ -3308,25 +3317,25 @@
         <v>9</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>45350</v>
       </c>
@@ -3334,25 +3343,25 @@
         <v>9</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45350</v>
       </c>
@@ -3360,25 +3369,25 @@
         <v>9</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>45350</v>
       </c>
@@ -3386,25 +3395,25 @@
         <v>9</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>45350</v>
       </c>
@@ -3412,25 +3421,25 @@
         <v>9</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>45350</v>
       </c>
@@ -3438,25 +3447,25 @@
         <v>9</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>45351</v>
       </c>
@@ -3464,25 +3473,25 @@
         <v>9</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45351</v>
       </c>
@@ -3490,25 +3499,25 @@
         <v>9</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45351</v>
       </c>
@@ -3516,25 +3525,25 @@
         <v>9</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>45351</v>
       </c>
@@ -3542,25 +3551,25 @@
         <v>9</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45351</v>
       </c>
@@ -3568,25 +3577,25 @@
         <v>10</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45351</v>
       </c>
@@ -3594,25 +3603,25 @@
         <v>10</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45351</v>
       </c>
@@ -3620,25 +3629,25 @@
         <v>10</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3646,26 +3655,29 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H100" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Category/Catégorie: Non-Sensitive/Non-Délicat&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
